--- a/pages/books/data/books.xlsx
+++ b/pages/books/data/books.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="144">
   <si>
     <t>name</t>
   </si>
@@ -433,6 +433,21 @@
   </si>
   <si>
     <t>Bibliográfico</t>
+  </si>
+  <si>
+    <t>src</t>
+  </si>
+  <si>
+    <t>./img/efeito-sombra.jpg</t>
+  </si>
+  <si>
+    <t>./img/tarsila-amaral.jpg</t>
+  </si>
+  <si>
+    <t>./img/alice-wonderland.jpg</t>
+  </si>
+  <si>
+    <t>./img/matrix.jpg</t>
   </si>
 </sst>
 </file>
@@ -789,10 +804,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -802,9 +817,10 @@
     <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -820,8 +836,11 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -837,8 +856,11 @@
       <c r="E2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>136</v>
       </c>
@@ -854,8 +876,11 @@
       <c r="E3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>114</v>
       </c>
@@ -871,8 +896,11 @@
       <c r="E4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -888,8 +916,11 @@
       <c r="E5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>94</v>
       </c>
@@ -906,7 +937,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>97</v>
       </c>
@@ -923,7 +954,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>101</v>
       </c>
@@ -940,7 +971,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>104</v>
       </c>
@@ -957,7 +988,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>112</v>
       </c>
@@ -974,7 +1005,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>65</v>
       </c>
@@ -991,7 +1022,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>119</v>
       </c>
@@ -1008,7 +1039,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>75</v>
       </c>
@@ -1025,7 +1056,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>62</v>
       </c>
@@ -1042,7 +1073,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -1059,7 +1090,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>100</v>
       </c>

--- a/pages/books/data/books.xlsx
+++ b/pages/books/data/books.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="193">
   <si>
     <t>name</t>
   </si>
@@ -72,33 +72,21 @@
     <t>Calculo Avançado V.I</t>
   </si>
   <si>
-    <t>Limites, Derivadas e Noções de Integral</t>
-  </si>
-  <si>
     <t>Gelson Iezzi</t>
   </si>
   <si>
     <t>Fundamentos da Matemática Elementar</t>
   </si>
   <si>
-    <t>Calculo V.II 5ª Edição</t>
-  </si>
-  <si>
     <t>James Stewart</t>
   </si>
   <si>
-    <t>Calculo V.I 5ª Edição</t>
-  </si>
-  <si>
     <t>Física V.I 4ª Edição</t>
   </si>
   <si>
     <t>Paul A. Tipler</t>
   </si>
   <si>
-    <t>Calculo V.I 4ª Edição</t>
-  </si>
-  <si>
     <t xml:space="preserve">Física V.I  </t>
   </si>
   <si>
@@ -108,9 +96,6 @@
     <t>Conjuntos e Funções</t>
   </si>
   <si>
-    <t>Introdução à Modelagem, Análise e Simulação de Sistemas Dinâmicos</t>
-  </si>
-  <si>
     <t>Antonio Carlos Zambroni de Souza</t>
   </si>
   <si>
@@ -195,27 +180,18 @@
     <t>Deixados para Trás</t>
   </si>
   <si>
-    <t>O Amor, As Mulheres e a Vida - Antologia de poemas de amor</t>
-  </si>
-  <si>
     <t>Mario Benedetti</t>
   </si>
   <si>
     <t>Poemas</t>
   </si>
   <si>
-    <t>Orfeu, O Encantador</t>
-  </si>
-  <si>
     <t>Guy Jimenes</t>
   </si>
   <si>
     <t>Histórias Sombrias da Mitologia Grega</t>
   </si>
   <si>
-    <t>Medeia, A Feiticeira</t>
-  </si>
-  <si>
     <t>Valérie Sigward</t>
   </si>
   <si>
@@ -258,9 +234,6 @@
     <t>Lauren Weisberger</t>
   </si>
   <si>
-    <t>Prometeu, Os Homens e Outros Mitos</t>
-  </si>
-  <si>
     <t>Menelaos Stephanides</t>
   </si>
   <si>
@@ -270,9 +243,6 @@
     <t>Hamiro-aqui</t>
   </si>
   <si>
-    <t>Cultura</t>
-  </si>
-  <si>
     <t>Animais Fantasticos e Onde Habitam</t>
   </si>
   <si>
@@ -345,9 +315,6 @@
     <t>Manoel Bertozzi</t>
   </si>
   <si>
-    <t>Na Vida Dez, Na Escola Zero</t>
-  </si>
-  <si>
     <t>Terezinha Nunes</t>
   </si>
   <si>
@@ -426,28 +393,208 @@
     <t>Frank Miller</t>
   </si>
   <si>
-    <t>Tarsila do Amaral, A Modernista</t>
-  </si>
-  <si>
     <t>Nádia Battella Gotlib</t>
   </si>
   <si>
     <t>Bibliográfico</t>
   </si>
   <si>
-    <t>src</t>
-  </si>
-  <si>
-    <t>./img/efeito-sombra.jpg</t>
-  </si>
-  <si>
-    <t>./img/tarsila-amaral.jpg</t>
-  </si>
-  <si>
-    <t>./img/alice-wonderland.jpg</t>
-  </si>
-  <si>
-    <t>./img/matrix.jpg</t>
+    <t>image</t>
+  </si>
+  <si>
+    <t>Na Vida Dez Na Escola Zero</t>
+  </si>
+  <si>
+    <t>Tarsila do Amaral  A Modernista</t>
+  </si>
+  <si>
+    <t>assassinos.jpg</t>
+  </si>
+  <si>
+    <t>efeito-sombra.jpg</t>
+  </si>
+  <si>
+    <t>tarsila-amaral.jpg</t>
+  </si>
+  <si>
+    <t>alice-wonderland.jpg</t>
+  </si>
+  <si>
+    <t>matrix.jpg</t>
+  </si>
+  <si>
+    <t>a-maquina-do-tempo.jpg</t>
+  </si>
+  <si>
+    <t>volta-ao-mundo.jpg</t>
+  </si>
+  <si>
+    <t>alice-pais-das-maravilhas.jpg</t>
+  </si>
+  <si>
+    <t>einstein.jpg</t>
+  </si>
+  <si>
+    <t>maktub.jpg</t>
+  </si>
+  <si>
+    <t>medeia.jpg</t>
+  </si>
+  <si>
+    <t>severina.jpg</t>
+  </si>
+  <si>
+    <t>vigario.jpg</t>
+  </si>
+  <si>
+    <t>orfeu.jpg</t>
+  </si>
+  <si>
+    <t>canterville.jpg</t>
+  </si>
+  <si>
+    <t>viagem-ao-centro-da-terra.jpg</t>
+  </si>
+  <si>
+    <t>na-vida-dez.jpg</t>
+  </si>
+  <si>
+    <t>animais.jpg</t>
+  </si>
+  <si>
+    <t>Medeia  A Feiticeira</t>
+  </si>
+  <si>
+    <t>Orfeu O Encantador</t>
+  </si>
+  <si>
+    <t>Prometeu Os Homens e Outros Mitos</t>
+  </si>
+  <si>
+    <t>O Amor  As Mulheres e a Vida - Antologia de poemas de amor</t>
+  </si>
+  <si>
+    <t>Introdução à Modelagem  Análise e Simulação de Sistemas Dinâmicos</t>
+  </si>
+  <si>
+    <t>Limites Derivadas e Noções de Integral</t>
+  </si>
+  <si>
+    <t>japoneses.jpg</t>
+  </si>
+  <si>
+    <t>Para se descolar em japonês</t>
+  </si>
+  <si>
+    <t>matematica-explica.jpg</t>
+  </si>
+  <si>
+    <t>papagaio.jpg</t>
+  </si>
+  <si>
+    <t>prometeus.jpg</t>
+  </si>
+  <si>
+    <t>death01.jpg</t>
+  </si>
+  <si>
+    <t>death11.jpg</t>
+  </si>
+  <si>
+    <t>mario.jpg</t>
+  </si>
+  <si>
+    <t>sentimento-de-mundo.jpg</t>
+  </si>
+  <si>
+    <t>as-furias.jpg</t>
+  </si>
+  <si>
+    <t>os300.jpg</t>
+  </si>
+  <si>
+    <t>virginia.jpg</t>
+  </si>
+  <si>
+    <t>fatima.jpg</t>
+  </si>
+  <si>
+    <t>colera.jpg</t>
+  </si>
+  <si>
+    <t>pipas.jpg</t>
+  </si>
+  <si>
+    <t>lado-bom.jpg</t>
+  </si>
+  <si>
+    <t>katherine.jpg</t>
+  </si>
+  <si>
+    <t>dragao.jpg</t>
+  </si>
+  <si>
+    <t>psteamo.jpg</t>
+  </si>
+  <si>
+    <t>paratodosempre.jpg</t>
+  </si>
+  <si>
+    <t>persuasao.jpg</t>
+  </si>
+  <si>
+    <t>razao-e-sentimento.jpg</t>
+  </si>
+  <si>
+    <t>sussurro.jpg</t>
+  </si>
+  <si>
+    <t>prada.jpg</t>
+  </si>
+  <si>
+    <t>tempo.jpg</t>
+  </si>
+  <si>
+    <t>paixao.jpg</t>
+  </si>
+  <si>
+    <t>alglinear.jpg</t>
+  </si>
+  <si>
+    <t>calc.jpg</t>
+  </si>
+  <si>
+    <t>Calculo I 4ª Edição</t>
+  </si>
+  <si>
+    <t>quartaedicao.jpg</t>
+  </si>
+  <si>
+    <t>Calculo I 5ª Edição</t>
+  </si>
+  <si>
+    <t>quintaedicao.jpg</t>
+  </si>
+  <si>
+    <t>Calculo II 5ª Edição</t>
+  </si>
+  <si>
+    <t>quintaedicao-volume2.jpg</t>
+  </si>
+  <si>
+    <t>matelementar01.jpg</t>
+  </si>
+  <si>
+    <t>fisica.jpg</t>
+  </si>
+  <si>
+    <t>fisica4edicao.jpg</t>
+  </si>
+  <si>
+    <t>sistemasdinamicos.jpg</t>
+  </si>
+  <si>
+    <t>integralderivada.jpg</t>
   </si>
 </sst>
 </file>
@@ -499,10 +646,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -806,8 +954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -837,18 +985,18 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -857,18 +1005,18 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B3" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="C3" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -877,38 +1025,38 @@
         <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -917,239 +1065,278 @@
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B9" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>106</v>
+        <v>96</v>
+      </c>
+      <c r="F9" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B10" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>148</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="B12" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="E13" t="s">
         <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>149</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E14" t="s">
         <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>34</v>
+      </c>
+      <c r="F15" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>128</v>
+      </c>
+      <c r="B18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" t="s">
         <v>100</v>
       </c>
-      <c r="B16" t="s">
-        <v>98</v>
-      </c>
-      <c r="C16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" t="s">
-        <v>99</v>
-      </c>
-      <c r="E16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>82</v>
-      </c>
-      <c r="B17" t="s">
-        <v>83</v>
-      </c>
-      <c r="C17" t="s">
-        <v>84</v>
-      </c>
-      <c r="D17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>109</v>
-      </c>
-      <c r="B18" t="s">
-        <v>110</v>
-      </c>
-      <c r="C18" t="s">
-        <v>111</v>
-      </c>
       <c r="D18" t="s">
         <v>8</v>
       </c>
       <c r="E18" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C19" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D19" t="s">
         <v>8</v>
@@ -1157,152 +1344,179 @@
       <c r="E19" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" t="s">
+        <v>116</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>150</v>
+      </c>
+      <c r="B24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>151</v>
+      </c>
+      <c r="B27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" t="s">
         <v>55</v>
       </c>
-      <c r="B20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>125</v>
-      </c>
-      <c r="B21" t="s">
-        <v>126</v>
-      </c>
-      <c r="C21" t="s">
-        <v>127</v>
-      </c>
-      <c r="D21" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>73</v>
-      </c>
-      <c r="B23" t="s">
-        <v>74</v>
-      </c>
-      <c r="C23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>80</v>
-      </c>
-      <c r="B24" t="s">
-        <v>81</v>
-      </c>
-      <c r="C24" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" t="s">
-        <v>70</v>
-      </c>
-      <c r="D25" t="s">
-        <v>71</v>
-      </c>
-      <c r="E25" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>72</v>
-      </c>
-      <c r="B26" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" t="s">
-        <v>70</v>
-      </c>
-      <c r="D26" t="s">
-        <v>71</v>
-      </c>
-      <c r="E26" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>59</v>
-      </c>
-      <c r="B27" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" t="s">
-        <v>61</v>
-      </c>
       <c r="D27" t="s">
         <v>8</v>
       </c>
       <c r="E27" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="B28" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="C28" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D28" t="s">
         <v>8</v>
@@ -1310,16 +1524,19 @@
       <c r="E28" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B29" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="C29" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="D29" t="s">
         <v>8</v>
@@ -1327,16 +1544,19 @@
       <c r="E29" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="B30" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C30" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="D30" t="s">
         <v>8</v>
@@ -1344,13 +1564,16 @@
       <c r="E30" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B31" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C31" t="s">
         <v>7</v>
@@ -1361,13 +1584,16 @@
       <c r="E31" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="B32" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="C32" t="s">
         <v>7</v>
@@ -1378,13 +1604,16 @@
       <c r="E32" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="B33" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="C33" t="s">
         <v>7</v>
@@ -1395,13 +1624,16 @@
       <c r="E33" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C34" t="s">
         <v>7</v>
@@ -1412,8 +1644,11 @@
       <c r="E34" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -1429,13 +1664,16 @@
       <c r="E35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B36" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C36" t="s">
         <v>7</v>
@@ -1446,25 +1684,31 @@
       <c r="E36" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B37" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C37" t="s">
         <v>7</v>
       </c>
       <c r="D37" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="E37" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -1480,30 +1724,36 @@
       <c r="E38" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="B39" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="C39" t="s">
         <v>7</v>
       </c>
       <c r="D39" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="E39" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="B40" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C40" t="s">
         <v>7</v>
@@ -1514,47 +1764,56 @@
       <c r="E40" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B41" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C41" t="s">
         <v>7</v>
       </c>
       <c r="D41" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="E41" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C42" t="s">
         <v>7</v>
       </c>
       <c r="D42" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E42" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B43" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C43" t="s">
         <v>7</v>
@@ -1563,15 +1822,18 @@
         <v>8</v>
       </c>
       <c r="E43" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="F43" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B44" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="C44" t="s">
         <v>7</v>
@@ -1582,13 +1844,16 @@
       <c r="E44" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F44" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C45" t="s">
         <v>7</v>
@@ -1599,8 +1864,11 @@
       <c r="E45" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F45" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>12</v>
       </c>
@@ -1616,8 +1884,11 @@
       <c r="E46" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F46" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>17</v>
       </c>
@@ -1633,13 +1904,16 @@
       <c r="E47" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>26</v>
+        <v>182</v>
       </c>
       <c r="B48" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C48" t="s">
         <v>14</v>
@@ -1650,13 +1924,16 @@
       <c r="E48" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>23</v>
+        <v>184</v>
       </c>
       <c r="B49" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C49" t="s">
         <v>14</v>
@@ -1667,13 +1944,16 @@
       <c r="E49" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>21</v>
+        <v>186</v>
       </c>
       <c r="B50" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C50" t="s">
         <v>14</v>
@@ -1684,30 +1964,36 @@
       <c r="E50" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B51" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C51" t="s">
         <v>14</v>
       </c>
       <c r="D51" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E51" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F51" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B52" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C52" t="s">
         <v>14</v>
@@ -1718,13 +2004,16 @@
       <c r="E52" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F52" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B53" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C53" t="s">
         <v>14</v>
@@ -1735,13 +2024,16 @@
       <c r="E53" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F53" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>30</v>
+        <v>152</v>
       </c>
       <c r="B54" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C54" t="s">
         <v>14</v>
@@ -1752,25 +2044,31 @@
       <c r="E54" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F54" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>153</v>
+      </c>
+      <c r="B55" t="s">
         <v>18</v>
-      </c>
-      <c r="B55" t="s">
-        <v>19</v>
       </c>
       <c r="C55" t="s">
         <v>14</v>
       </c>
       <c r="D55" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E55" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F55" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
     </row>
   </sheetData>
